--- a/BackTest/2020-01-19 BackTest TMTG.xlsx
+++ b/BackTest/2020-01-19 BackTest TMTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1342,7 +1342,7 @@
         <v>2157671.767750456</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>2095854.299750456</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>2096097.282750456</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>2097673.569750456</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>2101430.903750456</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>2083598.367850456</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>2076657.071950456</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>2078879.071950456</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>2078879.071950456</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>2078748.071950456</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>2154776.661550456</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>1898471.158650456</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>1811438.441193262</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>1898158.821493262</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>1962478.020893262</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>1862478.020893262</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>2086425.521893262</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>2086425.521893262</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>2086425.521893262</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>1783814.643927397</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>1772367.600927397</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>2284248.351331489</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>2284248.351331489</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>1926463.216331489</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>2114531.378331489</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>2371368.469331489</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>2444252.581331489</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>2502312.526331489</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>2502312.526331489</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>2261962.621331489</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>1980777.893331489</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>1964601.285331489</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>1964601.285331489</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>1875425.867331489</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>2021337.055331489</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>1800133.979331489</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>1844431.232331489</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>1697982.871331489</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>1400059.242331489</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>1901706.326931489</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>1901706.326931489</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>1820744.948931489</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>1820744.948931489</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>1820744.948931489</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>3915513.726031489</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>3057527.380031489</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>1807624.239031489</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>1832041.375031489</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>1900292.356031489</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>879426.7428314891</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>782705.013831489</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>633529.140831489</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>374644.766831489</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>41434.053831489</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>160955.225831489</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>314498.157831489</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>129790.045831489</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-104178.243168511</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-382968.273168511</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-371470.618168511</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-421789.060768511</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-510594.266768511</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-44713.12446851097</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-592727.144468511</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-592727.144468511</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-592727.144468511</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-592727.144468511</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-592727.144468511</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-854565.6994685109</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-828675.7514685109</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-896571.745468511</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-711473.088468511</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-392459.8942619915</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-1692206.940261991</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-1716166.175261991</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -14113,10 +14113,14 @@
         <v>-4680267.580661991</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="J416" t="n">
+        <v>3.844</v>
+      </c>
       <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
@@ -14149,8 +14153,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14182,8 +14192,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14278,10 +14294,14 @@
         <v>-4229148.820661991</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="J421" t="n">
+        <v>3.841</v>
+      </c>
       <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
@@ -14311,11 +14331,19 @@
         <v>-4229148.820661991</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="J422" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14344,11 +14372,19 @@
         <v>-4229148.820661991</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="J423" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14377,10 +14413,14 @@
         <v>-4229148.820661991</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="J424" t="n">
+        <v>3.841</v>
+      </c>
       <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
@@ -14410,11 +14450,19 @@
         <v>-4229148.820661991</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="J425" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14443,11 +14491,19 @@
         <v>-4011756.292661991</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="J426" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14476,10 +14532,14 @@
         <v>-4309179.171661991</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="J427" t="n">
+        <v>3.843</v>
+      </c>
       <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
@@ -14509,11 +14569,19 @@
         <v>-3724922.497661991</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="J428" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14542,11 +14610,19 @@
         <v>-3848784.861661991</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>3.879</v>
+      </c>
+      <c r="J429" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14578,8 +14654,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14611,8 +14693,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14644,8 +14732,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14677,8 +14771,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14707,11 +14807,19 @@
         <v>-3750372.517261991</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="J434" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14740,15 +14848,19 @@
         <v>-3750372.517261991</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I435" t="n">
         <v>3.844</v>
       </c>
       <c r="J435" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="K435" t="inlineStr"/>
+        <v>3.843</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14777,17 +14889,17 @@
         <v>-3581077.005261991</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I436" t="n">
         <v>3.844</v>
       </c>
       <c r="J436" t="n">
-        <v>3.844</v>
+        <v>3.843</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L436" t="n">
@@ -14818,17 +14930,17 @@
         <v>-3873072.829261991</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I437" t="n">
         <v>3.846</v>
       </c>
       <c r="J437" t="n">
-        <v>3.844</v>
+        <v>3.843</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L437" t="n">
@@ -14859,15 +14971,19 @@
         <v>-3552119.871261991</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I438" t="n">
         <v>3.844</v>
       </c>
       <c r="J438" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="K438" t="inlineStr"/>
+        <v>3.843</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14896,17 +15012,17 @@
         <v>-3569921.790261991</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I439" t="n">
         <v>3.845</v>
       </c>
       <c r="J439" t="n">
-        <v>3.844</v>
+        <v>3.843</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L439" t="n">
@@ -14937,17 +15053,17 @@
         <v>-3486244.520261991</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I440" t="n">
         <v>3.844</v>
       </c>
       <c r="J440" t="n">
-        <v>3.844</v>
+        <v>3.843</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L440" t="n">
@@ -14978,15 +15094,19 @@
         <v>-3656722.273261991</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I441" t="n">
         <v>3.845</v>
       </c>
       <c r="J441" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K441" t="inlineStr"/>
+        <v>3.843</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15015,17 +15135,17 @@
         <v>-3346742.246261991</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I442" t="n">
         <v>3.844</v>
       </c>
       <c r="J442" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L442" t="n">
@@ -15056,17 +15176,17 @@
         <v>-3716136.30226199</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I443" t="n">
         <v>3.846</v>
       </c>
       <c r="J443" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L443" t="n">
@@ -15097,15 +15217,19 @@
         <v>-3716136.30226199</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I444" t="n">
         <v>3.844</v>
       </c>
       <c r="J444" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="K444" t="inlineStr"/>
+        <v>3.843</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15134,15 +15258,17 @@
         <v>-3639691.334261991</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>3.844</v>
+      </c>
       <c r="J445" t="n">
-        <v>3.844</v>
+        <v>3.843</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L445" t="n">
@@ -15173,17 +15299,17 @@
         <v>-3862494.57726199</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I446" t="n">
         <v>3.847</v>
       </c>
       <c r="J446" t="n">
-        <v>3.844</v>
+        <v>3.843</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L446" t="n">
@@ -15214,15 +15340,19 @@
         <v>-3862494.57726199</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I447" t="n">
         <v>3.844</v>
       </c>
       <c r="J447" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="K447" t="inlineStr"/>
+        <v>3.843</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15251,17 +15381,17 @@
         <v>-3407322.75926199</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I448" t="n">
         <v>3.844</v>
       </c>
       <c r="J448" t="n">
-        <v>3.844</v>
+        <v>3.843</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L448" t="n">
@@ -15292,17 +15422,17 @@
         <v>-3461048.575261991</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I449" t="n">
         <v>3.846</v>
       </c>
       <c r="J449" t="n">
-        <v>3.844</v>
+        <v>3.843</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L449" t="n">
@@ -15333,15 +15463,19 @@
         <v>-3303348.33026199</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I450" t="n">
         <v>3.844</v>
       </c>
       <c r="J450" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="K450" t="inlineStr"/>
+        <v>3.843</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15370,17 +15504,17 @@
         <v>-3111786.288261991</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I451" t="n">
         <v>3.846</v>
       </c>
       <c r="J451" t="n">
-        <v>3.844</v>
+        <v>3.843</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L451" t="n">
@@ -15411,17 +15545,17 @@
         <v>-3376290.031261991</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I452" t="n">
         <v>3.848</v>
       </c>
       <c r="J452" t="n">
-        <v>3.844</v>
+        <v>3.843</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L452" t="n">
@@ -15452,15 +15586,19 @@
         <v>-4061211.471261991</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I453" t="n">
         <v>3.845</v>
       </c>
       <c r="J453" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K453" t="inlineStr"/>
+        <v>3.843</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15489,17 +15627,17 @@
         <v>-4030108.655261991</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I454" t="n">
         <v>3.844</v>
       </c>
       <c r="J454" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L454" t="n">
@@ -15530,17 +15668,17 @@
         <v>-4107612.278261991</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I455" t="n">
         <v>3.845</v>
       </c>
       <c r="J455" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L455" t="n">
@@ -15571,15 +15709,19 @@
         <v>-4107612.278261991</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I456" t="n">
         <v>3.844</v>
       </c>
       <c r="J456" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="K456" t="inlineStr"/>
+        <v>3.843</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15608,17 +15750,17 @@
         <v>-4107612.278261991</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I457" t="n">
         <v>3.844</v>
       </c>
       <c r="J457" t="n">
-        <v>3.844</v>
+        <v>3.843</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L457" t="n">
@@ -15649,17 +15791,17 @@
         <v>-3841171.191261991</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I458" t="n">
         <v>3.844</v>
       </c>
       <c r="J458" t="n">
-        <v>3.844</v>
+        <v>3.843</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L458" t="n">
@@ -15690,15 +15832,19 @@
         <v>-3826184.855261991</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I459" t="n">
         <v>3.845</v>
       </c>
       <c r="J459" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K459" t="inlineStr"/>
+        <v>3.843</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15727,17 +15873,17 @@
         <v>-3775672.349261991</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I460" t="n">
         <v>3.848</v>
       </c>
       <c r="J460" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L460" t="n">
@@ -15768,17 +15914,15 @@
         <v>-3690705.415261991</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
-      </c>
-      <c r="I461" t="n">
-        <v>3.851</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
       <c r="J461" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L461" t="n">
@@ -15809,17 +15953,15 @@
         <v>-4213051.27326199</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
-      </c>
-      <c r="I462" t="n">
-        <v>3.853</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
       <c r="J462" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L462" t="n">
@@ -15850,13 +15992,13 @@
         <v>-4735131.89726199</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I463" t="n">
         <v>3.847</v>
       </c>
       <c r="J463" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -15891,13 +16033,13 @@
         <v>-4682514.183261991</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I464" t="n">
         <v>3.845</v>
       </c>
       <c r="J464" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -15932,11 +16074,13 @@
         <v>-4682514.183261991</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>3.846</v>
+      </c>
       <c r="J465" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -15971,13 +16115,13 @@
         <v>-4391246.115261991</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I466" t="n">
         <v>3.846</v>
       </c>
       <c r="J466" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -16012,13 +16156,13 @@
         <v>-4755219.17726199</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I467" t="n">
         <v>3.848</v>
       </c>
       <c r="J467" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -16053,13 +16197,13 @@
         <v>-4328047.399261991</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I468" t="n">
         <v>3.846</v>
       </c>
       <c r="J468" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -16094,13 +16238,13 @@
         <v>-4318448.36926199</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I469" t="n">
         <v>3.848</v>
       </c>
       <c r="J469" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -16135,13 +16279,13 @@
         <v>-4374515.21426199</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I470" t="n">
         <v>3.85</v>
       </c>
       <c r="J470" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -16176,13 +16320,13 @@
         <v>-4060645.07326199</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I471" t="n">
         <v>3.847</v>
       </c>
       <c r="J471" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
@@ -16217,13 +16361,13 @@
         <v>-3785309.29826199</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I472" t="n">
         <v>3.851</v>
       </c>
       <c r="J472" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -16258,13 +16402,13 @@
         <v>-3449630.49526199</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I473" t="n">
         <v>3.853</v>
       </c>
       <c r="J473" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -16299,13 +16443,13 @@
         <v>-3403988.343261991</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I474" t="n">
         <v>3.855</v>
       </c>
       <c r="J474" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -16340,13 +16484,13 @@
         <v>-3490441.213261991</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I475" t="n">
         <v>3.856</v>
       </c>
       <c r="J475" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -16381,13 +16525,13 @@
         <v>-3351997.115261991</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I476" t="n">
         <v>3.853</v>
       </c>
       <c r="J476" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -16422,13 +16566,13 @@
         <v>-3190869.724261991</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I477" t="n">
         <v>3.855</v>
       </c>
       <c r="J477" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -16463,13 +16607,13 @@
         <v>-3017943.057261991</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I478" t="n">
         <v>3.856</v>
       </c>
       <c r="J478" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -16504,13 +16648,11 @@
         <v>-3120529.075761991</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
-      </c>
-      <c r="I479" t="n">
-        <v>3.858</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
       <c r="J479" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -16549,7 +16691,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -16584,13 +16726,11 @@
         <v>-2790223.43476199</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
-      </c>
-      <c r="I481" t="n">
-        <v>3.847</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I481" t="inlineStr"/>
       <c r="J481" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -16629,7 +16769,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -16668,7 +16808,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -16703,13 +16843,13 @@
         <v>-2814929.64676199</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I484" t="n">
         <v>3.852</v>
       </c>
       <c r="J484" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -16744,13 +16884,13 @@
         <v>-2963919.77776199</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I485" t="n">
         <v>3.855</v>
       </c>
       <c r="J485" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -16785,13 +16925,13 @@
         <v>-2762951.96476199</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I486" t="n">
         <v>3.852</v>
       </c>
       <c r="J486" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -16826,13 +16966,13 @@
         <v>-2537473.03176199</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I487" t="n">
         <v>3.855</v>
       </c>
       <c r="J487" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -16867,13 +17007,13 @@
         <v>-2816243.39876199</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I488" t="n">
         <v>3.857</v>
       </c>
       <c r="J488" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -16908,13 +17048,13 @@
         <v>-2804622.31676199</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I489" t="n">
         <v>3.854</v>
       </c>
       <c r="J489" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -16949,13 +17089,13 @@
         <v>-2846097.92776199</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I490" t="n">
         <v>3.856</v>
       </c>
       <c r="J490" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
@@ -16990,13 +17130,13 @@
         <v>-3234100.01046199</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I491" t="n">
         <v>3.854</v>
       </c>
       <c r="J491" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
@@ -17031,13 +17171,13 @@
         <v>-2970874.57546199</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I492" t="n">
         <v>3.85</v>
       </c>
       <c r="J492" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
@@ -17072,13 +17212,13 @@
         <v>-2970874.57546199</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I493" t="n">
         <v>3.861</v>
       </c>
       <c r="J493" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
@@ -17113,13 +17253,13 @@
         <v>-2970874.57546199</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I494" t="n">
         <v>3.861</v>
       </c>
       <c r="J494" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -17154,11 +17294,13 @@
         <v>-2802312.12246199</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
-      </c>
-      <c r="I495" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I495" t="n">
+        <v>3.861</v>
+      </c>
       <c r="J495" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -17193,11 +17335,13 @@
         <v>-3089475.17146199</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I496" t="n">
+        <v>3.863</v>
+      </c>
       <c r="J496" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
@@ -17232,13 +17376,13 @@
         <v>-2671432.27946199</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I497" t="n">
         <v>3.861</v>
       </c>
       <c r="J497" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K497" t="inlineStr">
         <is>
@@ -17273,13 +17417,13 @@
         <v>-2146844.26256199</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I498" t="n">
         <v>3.865</v>
       </c>
       <c r="J498" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
@@ -17318,7 +17462,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
@@ -17357,7 +17501,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -17396,7 +17540,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
@@ -17435,7 +17579,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K502" t="inlineStr">
         <is>
@@ -17474,7 +17618,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K503" t="inlineStr">
         <is>
@@ -17513,7 +17657,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K504" t="inlineStr">
         <is>
@@ -17552,7 +17696,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K505" t="inlineStr">
         <is>
@@ -17591,7 +17735,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K506" t="inlineStr">
         <is>
@@ -17630,7 +17774,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K507" t="inlineStr">
         <is>
@@ -17669,7 +17813,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K508" t="inlineStr">
         <is>
@@ -17708,7 +17852,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K509" t="inlineStr">
         <is>
@@ -17747,7 +17891,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K510" t="inlineStr">
         <is>
@@ -17786,7 +17930,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K511" t="inlineStr">
         <is>
@@ -17825,7 +17969,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K512" t="inlineStr">
         <is>
@@ -17864,7 +18008,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K513" t="inlineStr">
         <is>
@@ -17903,7 +18047,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K514" t="inlineStr">
         <is>
@@ -17942,7 +18086,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K515" t="inlineStr">
         <is>
@@ -17981,7 +18125,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K516" t="inlineStr">
         <is>
@@ -18020,7 +18164,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K517" t="inlineStr">
         <is>
@@ -18059,7 +18203,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K518" t="inlineStr">
         <is>
@@ -18098,7 +18242,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K519" t="inlineStr">
         <is>
@@ -18137,7 +18281,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K520" t="inlineStr">
         <is>
@@ -18176,7 +18320,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K521" t="inlineStr">
         <is>
@@ -18215,7 +18359,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K522" t="inlineStr">
         <is>
@@ -18254,7 +18398,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K523" t="inlineStr">
         <is>
@@ -18293,7 +18437,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K524" t="inlineStr">
         <is>
@@ -18332,7 +18476,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K525" t="inlineStr">
         <is>
@@ -18371,7 +18515,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K526" t="inlineStr">
         <is>
@@ -18410,7 +18554,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K527" t="inlineStr">
         <is>
@@ -18449,7 +18593,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K528" t="inlineStr">
         <is>
@@ -18488,7 +18632,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K529" t="inlineStr">
         <is>
@@ -18527,7 +18671,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K530" t="inlineStr">
         <is>
@@ -18566,7 +18710,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K531" t="inlineStr">
         <is>
@@ -18605,7 +18749,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K532" t="inlineStr">
         <is>
@@ -18644,7 +18788,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K533" t="inlineStr">
         <is>
@@ -18683,7 +18827,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K534" t="inlineStr">
         <is>
@@ -18722,7 +18866,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K535" t="inlineStr">
         <is>
@@ -18761,7 +18905,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K536" t="inlineStr">
         <is>
@@ -18800,7 +18944,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K537" t="inlineStr">
         <is>
@@ -18835,19 +18979,19 @@
         <v>-3079822.941313024</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="n">
-        <v>3.845</v>
+        <v>3.843</v>
       </c>
       <c r="K538" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L538" t="n">
-        <v>1</v>
+        <v>0.9991634139994795</v>
       </c>
       <c r="M538" t="inlineStr"/>
     </row>
@@ -18877,14 +19021,8 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18916,14 +19054,8 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18955,14 +19087,8 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18994,14 +19120,8 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19033,14 +19153,8 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19072,14 +19186,8 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19111,14 +19219,8 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19150,14 +19252,8 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19189,14 +19285,8 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19228,14 +19318,8 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19267,14 +19351,8 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19306,14 +19384,8 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19345,14 +19417,8 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19384,14 +19450,8 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19423,14 +19483,8 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19462,14 +19516,8 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19501,14 +19549,8 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19540,14 +19582,8 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19579,14 +19615,8 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19618,14 +19648,8 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19657,14 +19681,8 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19696,14 +19714,8 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19735,14 +19747,8 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19774,14 +19780,8 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19813,14 +19813,8 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19852,14 +19846,8 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19891,14 +19879,8 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19930,14 +19912,8 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19969,14 +19945,8 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20008,14 +19978,8 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20047,14 +20011,8 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20086,14 +20044,8 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20125,14 +20077,8 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20164,14 +20110,8 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20203,14 +20143,8 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20242,14 +20176,8 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20281,14 +20209,8 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20320,14 +20242,8 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20359,14 +20275,8 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20398,14 +20308,8 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20437,14 +20341,8 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20476,14 +20374,8 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20515,14 +20407,8 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20554,14 +20440,8 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20593,14 +20473,8 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20632,14 +20506,8 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20671,14 +20539,8 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20710,14 +20572,8 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20749,14 +20605,8 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20788,14 +20638,8 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20827,14 +20671,8 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20866,14 +20704,8 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20905,14 +20737,8 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20944,14 +20770,8 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20983,14 +20803,8 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -21022,14 +20836,8 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -21061,14 +20869,8 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -21100,14 +20902,8 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21139,14 +20935,8 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -21178,14 +20968,8 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -21217,14 +21001,8 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -21256,14 +21034,8 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21295,14 +21067,8 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21334,14 +21100,8 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21373,14 +21133,8 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21412,14 +21166,8 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21451,14 +21199,8 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21490,14 +21232,8 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21529,14 +21265,8 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21568,20 +21298,14 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
       <c r="M608" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest TMTG.xlsx
+++ b/BackTest/2020-01-19 BackTest TMTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
         <v>191986.6576548276</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>2157671.767750456</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>2095854.299750456</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>2096097.282750456</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>2097673.569750456</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>2101430.903750456</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>2083598.367850456</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>2076657.071950456</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>2078879.071950456</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>2078879.071950456</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>2078748.071950456</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>2154776.661550456</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>1898471.158650456</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>1898158.821493262</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>1962478.020893262</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>1862478.020893262</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>1844431.232331489</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>1697982.871331489</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>1400059.242331489</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>1901706.326931489</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>1901706.326931489</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>1820744.948931489</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>1820744.948931489</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>1820744.948931489</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>3915513.726031489</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>3057527.380031489</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>1807624.239031489</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>1832041.375031489</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>1900292.356031489</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>879426.7428314891</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>782705.013831489</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>633529.140831489</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>374644.766831489</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>41434.053831489</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>160955.225831489</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>314498.157831489</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>129790.045831489</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-104178.243168511</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-382968.273168511</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-371470.618168511</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-421789.060768511</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-510594.266768511</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-44713.12446851097</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-592727.144468511</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-592727.144468511</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-592727.144468511</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-592727.144468511</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-592727.144468511</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-854565.6994685109</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-828675.7514685109</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-896571.745468511</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-711473.088468511</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-392459.8942619915</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-1692206.940261991</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-1716166.175261991</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -14113,14 +14113,10 @@
         <v>-4680267.580661991</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
-      </c>
-      <c r="I416" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="J416" t="n">
-        <v>3.844</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
@@ -14153,14 +14149,8 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14192,14 +14182,8 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14294,14 +14278,10 @@
         <v>-4229148.820661991</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
-      </c>
-      <c r="I421" t="n">
-        <v>3.841</v>
-      </c>
-      <c r="J421" t="n">
-        <v>3.841</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
@@ -14331,1233 +14311,1037 @@
         <v>-4229148.820661991</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
-      </c>
-      <c r="I422" t="n">
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
+      <c r="L422" t="n">
+        <v>1</v>
+      </c>
+      <c r="M422" t="inlineStr"/>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="B423" t="n">
         <v>3.841</v>
       </c>
-      <c r="J422" t="n">
+      <c r="C423" t="n">
         <v>3.841</v>
       </c>
-      <c r="K422" t="inlineStr">
+      <c r="D423" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="E423" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="F423" t="n">
+        <v>289779.942</v>
+      </c>
+      <c r="G423" t="n">
+        <v>-4229148.820661991</v>
+      </c>
+      <c r="H423" t="n">
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
+      <c r="L423" t="n">
+        <v>1</v>
+      </c>
+      <c r="M423" t="inlineStr"/>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="B424" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="C424" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="D424" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="E424" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="F424" t="n">
+        <v>54957.098</v>
+      </c>
+      <c r="G424" t="n">
+        <v>-4229148.820661991</v>
+      </c>
+      <c r="H424" t="n">
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
+      <c r="L424" t="n">
+        <v>1</v>
+      </c>
+      <c r="M424" t="inlineStr"/>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B425" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="C425" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="D425" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="E425" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="F425" t="n">
+        <v>146579.313</v>
+      </c>
+      <c r="G425" t="n">
+        <v>-4229148.820661991</v>
+      </c>
+      <c r="H425" t="n">
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
+      <c r="L425" t="n">
+        <v>1</v>
+      </c>
+      <c r="M425" t="inlineStr"/>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="B426" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="C426" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="D426" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="E426" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="F426" t="n">
+        <v>217392.528</v>
+      </c>
+      <c r="G426" t="n">
+        <v>-4011756.292661991</v>
+      </c>
+      <c r="H426" t="n">
+        <v>0</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
+      <c r="L426" t="n">
+        <v>1</v>
+      </c>
+      <c r="M426" t="inlineStr"/>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="B427" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="C427" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="D427" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="E427" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="F427" t="n">
+        <v>297422.879</v>
+      </c>
+      <c r="G427" t="n">
+        <v>-4309179.171661991</v>
+      </c>
+      <c r="H427" t="n">
+        <v>0</v>
+      </c>
+      <c r="I427" t="inlineStr"/>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
+      <c r="L427" t="n">
+        <v>1</v>
+      </c>
+      <c r="M427" t="inlineStr"/>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="B428" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="C428" t="n">
+        <v>3.879</v>
+      </c>
+      <c r="D428" t="n">
+        <v>3.879</v>
+      </c>
+      <c r="E428" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="F428" t="n">
+        <v>584256.674</v>
+      </c>
+      <c r="G428" t="n">
+        <v>-3724922.497661991</v>
+      </c>
+      <c r="H428" t="n">
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
+      <c r="L428" t="n">
+        <v>1</v>
+      </c>
+      <c r="M428" t="inlineStr"/>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B429" t="n">
+        <v>3.878</v>
+      </c>
+      <c r="C429" t="n">
+        <v>3.878</v>
+      </c>
+      <c r="D429" t="n">
+        <v>3.878</v>
+      </c>
+      <c r="E429" t="n">
+        <v>3.878</v>
+      </c>
+      <c r="F429" t="n">
+        <v>123862.364</v>
+      </c>
+      <c r="G429" t="n">
+        <v>-3848784.861661991</v>
+      </c>
+      <c r="H429" t="n">
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
+      <c r="L429" t="n">
+        <v>1</v>
+      </c>
+      <c r="M429" t="inlineStr"/>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="B430" t="n">
+        <v>3.876</v>
+      </c>
+      <c r="C430" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="D430" t="n">
+        <v>3.876</v>
+      </c>
+      <c r="E430" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="F430" t="n">
+        <v>263522.0666</v>
+      </c>
+      <c r="G430" t="n">
+        <v>-4112306.928261991</v>
+      </c>
+      <c r="H430" t="n">
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
+      <c r="L430" t="n">
+        <v>1</v>
+      </c>
+      <c r="M430" t="inlineStr"/>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B431" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="C431" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="D431" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="E431" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="F431" t="n">
+        <v>362070.403</v>
+      </c>
+      <c r="G431" t="n">
+        <v>-3750236.525261991</v>
+      </c>
+      <c r="H431" t="n">
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
+      <c r="L431" t="n">
+        <v>1</v>
+      </c>
+      <c r="M431" t="inlineStr"/>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="B432" t="n">
+        <v>3.845</v>
+      </c>
+      <c r="C432" t="n">
+        <v>3.845</v>
+      </c>
+      <c r="D432" t="n">
+        <v>3.845</v>
+      </c>
+      <c r="E432" t="n">
+        <v>3.845</v>
+      </c>
+      <c r="F432" t="n">
+        <v>522756.827</v>
+      </c>
+      <c r="G432" t="n">
+        <v>-3227479.698261991</v>
+      </c>
+      <c r="H432" t="n">
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
+      <c r="L432" t="n">
+        <v>1</v>
+      </c>
+      <c r="M432" t="inlineStr"/>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="B433" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="C433" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="D433" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="E433" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="F433" t="n">
+        <v>522892.819</v>
+      </c>
+      <c r="G433" t="n">
+        <v>-3750372.517261991</v>
+      </c>
+      <c r="H433" t="n">
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
+      <c r="L433" t="n">
+        <v>1</v>
+      </c>
+      <c r="M433" t="inlineStr"/>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="B434" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="C434" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="D434" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="E434" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="F434" t="n">
+        <v>619073.0429999999</v>
+      </c>
+      <c r="G434" t="n">
+        <v>-3750372.517261991</v>
+      </c>
+      <c r="H434" t="n">
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
+      <c r="L434" t="n">
+        <v>1</v>
+      </c>
+      <c r="M434" t="inlineStr"/>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B435" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="C435" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="D435" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="E435" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="F435" t="n">
+        <v>124925.475</v>
+      </c>
+      <c r="G435" t="n">
+        <v>-3750372.517261991</v>
+      </c>
+      <c r="H435" t="n">
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
+      <c r="L435" t="n">
+        <v>1</v>
+      </c>
+      <c r="M435" t="inlineStr"/>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B436" t="n">
+        <v>3.846</v>
+      </c>
+      <c r="C436" t="n">
+        <v>3.846</v>
+      </c>
+      <c r="D436" t="n">
+        <v>3.846</v>
+      </c>
+      <c r="E436" t="n">
+        <v>3.846</v>
+      </c>
+      <c r="F436" t="n">
+        <v>169295.512</v>
+      </c>
+      <c r="G436" t="n">
+        <v>-3581077.005261991</v>
+      </c>
+      <c r="H436" t="n">
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
+      <c r="L436" t="n">
+        <v>1</v>
+      </c>
+      <c r="M436" t="inlineStr"/>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B437" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="C437" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="D437" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="E437" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="F437" t="n">
+        <v>291995.824</v>
+      </c>
+      <c r="G437" t="n">
+        <v>-3873072.829261991</v>
+      </c>
+      <c r="H437" t="n">
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
+      <c r="L437" t="n">
+        <v>1</v>
+      </c>
+      <c r="M437" t="inlineStr"/>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="B438" t="n">
+        <v>3.845</v>
+      </c>
+      <c r="C438" t="n">
+        <v>3.845</v>
+      </c>
+      <c r="D438" t="n">
+        <v>3.845</v>
+      </c>
+      <c r="E438" t="n">
+        <v>3.845</v>
+      </c>
+      <c r="F438" t="n">
+        <v>320952.958</v>
+      </c>
+      <c r="G438" t="n">
+        <v>-3552119.871261991</v>
+      </c>
+      <c r="H438" t="n">
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
+      <c r="L438" t="n">
+        <v>1</v>
+      </c>
+      <c r="M438" t="inlineStr"/>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B439" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="C439" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="D439" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="E439" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="F439" t="n">
+        <v>17801.919</v>
+      </c>
+      <c r="G439" t="n">
+        <v>-3569921.790261991</v>
+      </c>
+      <c r="H439" t="n">
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
+      <c r="L439" t="n">
+        <v>1</v>
+      </c>
+      <c r="M439" t="inlineStr"/>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="B440" t="n">
+        <v>3.845</v>
+      </c>
+      <c r="C440" t="n">
+        <v>3.845</v>
+      </c>
+      <c r="D440" t="n">
+        <v>3.845</v>
+      </c>
+      <c r="E440" t="n">
+        <v>3.845</v>
+      </c>
+      <c r="F440" t="n">
+        <v>83677.27</v>
+      </c>
+      <c r="G440" t="n">
+        <v>-3486244.520261991</v>
+      </c>
+      <c r="H440" t="n">
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
+      <c r="L440" t="n">
+        <v>1</v>
+      </c>
+      <c r="M440" t="inlineStr"/>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n">
+        <v>439</v>
+      </c>
+      <c r="B441" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="C441" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="D441" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="E441" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="F441" t="n">
+        <v>170477.753</v>
+      </c>
+      <c r="G441" t="n">
+        <v>-3656722.273261991</v>
+      </c>
+      <c r="H441" t="n">
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
+      <c r="L441" t="n">
+        <v>1</v>
+      </c>
+      <c r="M441" t="inlineStr"/>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="B442" t="n">
+        <v>3.846</v>
+      </c>
+      <c r="C442" t="n">
+        <v>3.846</v>
+      </c>
+      <c r="D442" t="n">
+        <v>3.846</v>
+      </c>
+      <c r="E442" t="n">
+        <v>3.846</v>
+      </c>
+      <c r="F442" t="n">
+        <v>309980.027</v>
+      </c>
+      <c r="G442" t="n">
+        <v>-3346742.246261991</v>
+      </c>
+      <c r="H442" t="n">
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
+      <c r="L442" t="n">
+        <v>1</v>
+      </c>
+      <c r="M442" t="inlineStr"/>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="n">
+        <v>441</v>
+      </c>
+      <c r="B443" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="C443" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="D443" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="E443" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="F443" t="n">
+        <v>369394.056</v>
+      </c>
+      <c r="G443" t="n">
+        <v>-3716136.30226199</v>
+      </c>
+      <c r="H443" t="n">
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
+      <c r="L443" t="n">
+        <v>1</v>
+      </c>
+      <c r="M443" t="inlineStr"/>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n">
+        <v>442</v>
+      </c>
+      <c r="B444" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="C444" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="D444" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="E444" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="F444" t="n">
+        <v>554830.738</v>
+      </c>
+      <c r="G444" t="n">
+        <v>-3716136.30226199</v>
+      </c>
+      <c r="H444" t="n">
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
+      <c r="L444" t="n">
+        <v>1</v>
+      </c>
+      <c r="M444" t="inlineStr"/>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="B445" t="n">
+        <v>3.847</v>
+      </c>
+      <c r="C445" t="n">
+        <v>3.847</v>
+      </c>
+      <c r="D445" t="n">
+        <v>3.847</v>
+      </c>
+      <c r="E445" t="n">
+        <v>3.847</v>
+      </c>
+      <c r="F445" t="n">
+        <v>76444.96799999999</v>
+      </c>
+      <c r="G445" t="n">
+        <v>-3639691.334261991</v>
+      </c>
+      <c r="H445" t="n">
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
+      <c r="L445" t="n">
+        <v>1</v>
+      </c>
+      <c r="M445" t="inlineStr"/>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="B446" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="C446" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="D446" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="E446" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="F446" t="n">
+        <v>222803.243</v>
+      </c>
+      <c r="G446" t="n">
+        <v>-3862494.57726199</v>
+      </c>
+      <c r="H446" t="n">
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
+      <c r="L446" t="n">
+        <v>1</v>
+      </c>
+      <c r="M446" t="inlineStr"/>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="n">
+        <v>445</v>
+      </c>
+      <c r="B447" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="C447" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="D447" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="E447" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="F447" t="n">
+        <v>319971.294</v>
+      </c>
+      <c r="G447" t="n">
+        <v>-3862494.57726199</v>
+      </c>
+      <c r="H447" t="n">
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="J447" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="K447" t="inlineStr"/>
+      <c r="L447" t="n">
+        <v>1</v>
+      </c>
+      <c r="M447" t="inlineStr"/>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="n">
+        <v>446</v>
+      </c>
+      <c r="B448" t="n">
+        <v>3.846</v>
+      </c>
+      <c r="C448" t="n">
+        <v>3.846</v>
+      </c>
+      <c r="D448" t="n">
+        <v>3.846</v>
+      </c>
+      <c r="E448" t="n">
+        <v>3.846</v>
+      </c>
+      <c r="F448" t="n">
+        <v>455171.818</v>
+      </c>
+      <c r="G448" t="n">
+        <v>-3407322.75926199</v>
+      </c>
+      <c r="H448" t="n">
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="J448" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="K448" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L422" t="n">
-        <v>1</v>
-      </c>
-      <c r="M422" t="inlineStr"/>
-    </row>
-    <row r="423">
-      <c r="A423" s="1" t="n">
-        <v>421</v>
-      </c>
-      <c r="B423" t="n">
-        <v>3.841</v>
-      </c>
-      <c r="C423" t="n">
-        <v>3.841</v>
-      </c>
-      <c r="D423" t="n">
-        <v>3.841</v>
-      </c>
-      <c r="E423" t="n">
-        <v>3.841</v>
-      </c>
-      <c r="F423" t="n">
-        <v>289779.942</v>
-      </c>
-      <c r="G423" t="n">
-        <v>-4229148.820661991</v>
-      </c>
-      <c r="H423" t="n">
-        <v>1</v>
-      </c>
-      <c r="I423" t="n">
-        <v>3.841</v>
-      </c>
-      <c r="J423" t="n">
-        <v>3.841</v>
-      </c>
-      <c r="K423" t="inlineStr">
+      <c r="L448" t="n">
+        <v>1</v>
+      </c>
+      <c r="M448" t="inlineStr"/>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="B449" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="C449" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="D449" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="E449" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="F449" t="n">
+        <v>53725.816</v>
+      </c>
+      <c r="G449" t="n">
+        <v>-3461048.575261991</v>
+      </c>
+      <c r="H449" t="n">
+        <v>0</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="K449" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L423" t="n">
-        <v>1</v>
-      </c>
-      <c r="M423" t="inlineStr"/>
-    </row>
-    <row r="424">
-      <c r="A424" s="1" t="n">
-        <v>422</v>
-      </c>
-      <c r="B424" t="n">
-        <v>3.841</v>
-      </c>
-      <c r="C424" t="n">
-        <v>3.841</v>
-      </c>
-      <c r="D424" t="n">
-        <v>3.841</v>
-      </c>
-      <c r="E424" t="n">
-        <v>3.841</v>
-      </c>
-      <c r="F424" t="n">
-        <v>54957.098</v>
-      </c>
-      <c r="G424" t="n">
-        <v>-4229148.820661991</v>
-      </c>
-      <c r="H424" t="n">
-        <v>1</v>
-      </c>
-      <c r="I424" t="n">
-        <v>3.841</v>
-      </c>
-      <c r="J424" t="n">
-        <v>3.841</v>
-      </c>
-      <c r="K424" t="inlineStr"/>
-      <c r="L424" t="n">
-        <v>1</v>
-      </c>
-      <c r="M424" t="inlineStr"/>
-    </row>
-    <row r="425">
-      <c r="A425" s="1" t="n">
-        <v>423</v>
-      </c>
-      <c r="B425" t="n">
-        <v>3.841</v>
-      </c>
-      <c r="C425" t="n">
-        <v>3.841</v>
-      </c>
-      <c r="D425" t="n">
-        <v>3.841</v>
-      </c>
-      <c r="E425" t="n">
-        <v>3.841</v>
-      </c>
-      <c r="F425" t="n">
-        <v>146579.313</v>
-      </c>
-      <c r="G425" t="n">
-        <v>-4229148.820661991</v>
-      </c>
-      <c r="H425" t="n">
-        <v>1</v>
-      </c>
-      <c r="I425" t="n">
-        <v>3.841</v>
-      </c>
-      <c r="J425" t="n">
-        <v>3.841</v>
-      </c>
-      <c r="K425" t="inlineStr">
+      <c r="L449" t="n">
+        <v>1</v>
+      </c>
+      <c r="M449" t="inlineStr"/>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="B450" t="n">
+        <v>3.846</v>
+      </c>
+      <c r="C450" t="n">
+        <v>3.846</v>
+      </c>
+      <c r="D450" t="n">
+        <v>3.846</v>
+      </c>
+      <c r="E450" t="n">
+        <v>3.846</v>
+      </c>
+      <c r="F450" t="n">
+        <v>157700.245</v>
+      </c>
+      <c r="G450" t="n">
+        <v>-3303348.33026199</v>
+      </c>
+      <c r="H450" t="n">
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="J450" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="K450" t="inlineStr"/>
+      <c r="L450" t="n">
+        <v>1</v>
+      </c>
+      <c r="M450" t="inlineStr"/>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n">
+        <v>449</v>
+      </c>
+      <c r="B451" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="C451" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="D451" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="E451" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="F451" t="n">
+        <v>191562.042</v>
+      </c>
+      <c r="G451" t="n">
+        <v>-3111786.288261991</v>
+      </c>
+      <c r="H451" t="n">
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>3.846</v>
+      </c>
+      <c r="J451" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="K451" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L425" t="n">
-        <v>1</v>
-      </c>
-      <c r="M425" t="inlineStr"/>
-    </row>
-    <row r="426">
-      <c r="A426" s="1" t="n">
-        <v>424</v>
-      </c>
-      <c r="B426" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="C426" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="D426" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="E426" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="F426" t="n">
-        <v>217392.528</v>
-      </c>
-      <c r="G426" t="n">
-        <v>-4011756.292661991</v>
-      </c>
-      <c r="H426" t="n">
-        <v>1</v>
-      </c>
-      <c r="I426" t="n">
-        <v>3.841</v>
-      </c>
-      <c r="J426" t="n">
-        <v>3.841</v>
-      </c>
-      <c r="K426" t="inlineStr">
+      <c r="L451" t="n">
+        <v>1</v>
+      </c>
+      <c r="M451" t="inlineStr"/>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="B452" t="n">
+        <v>3.845</v>
+      </c>
+      <c r="C452" t="n">
+        <v>3.845</v>
+      </c>
+      <c r="D452" t="n">
+        <v>3.845</v>
+      </c>
+      <c r="E452" t="n">
+        <v>3.845</v>
+      </c>
+      <c r="F452" t="n">
+        <v>264503.743</v>
+      </c>
+      <c r="G452" t="n">
+        <v>-3376290.031261991</v>
+      </c>
+      <c r="H452" t="n">
+        <v>0</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="K452" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L426" t="n">
-        <v>1</v>
-      </c>
-      <c r="M426" t="inlineStr"/>
-    </row>
-    <row r="427">
-      <c r="A427" s="1" t="n">
-        <v>425</v>
-      </c>
-      <c r="B427" t="n">
-        <v>3.841</v>
-      </c>
-      <c r="C427" t="n">
-        <v>3.841</v>
-      </c>
-      <c r="D427" t="n">
-        <v>3.841</v>
-      </c>
-      <c r="E427" t="n">
-        <v>3.841</v>
-      </c>
-      <c r="F427" t="n">
-        <v>297422.879</v>
-      </c>
-      <c r="G427" t="n">
-        <v>-4309179.171661991</v>
-      </c>
-      <c r="H427" t="n">
-        <v>1</v>
-      </c>
-      <c r="I427" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="J427" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K427" t="inlineStr"/>
-      <c r="L427" t="n">
-        <v>1</v>
-      </c>
-      <c r="M427" t="inlineStr"/>
-    </row>
-    <row r="428">
-      <c r="A428" s="1" t="n">
-        <v>426</v>
-      </c>
-      <c r="B428" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="C428" t="n">
-        <v>3.879</v>
-      </c>
-      <c r="D428" t="n">
-        <v>3.879</v>
-      </c>
-      <c r="E428" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="F428" t="n">
-        <v>584256.674</v>
-      </c>
-      <c r="G428" t="n">
-        <v>-3724922.497661991</v>
-      </c>
-      <c r="H428" t="n">
-        <v>1</v>
-      </c>
-      <c r="I428" t="n">
-        <v>3.841</v>
-      </c>
-      <c r="J428" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L428" t="n">
-        <v>1</v>
-      </c>
-      <c r="M428" t="inlineStr"/>
-    </row>
-    <row r="429">
-      <c r="A429" s="1" t="n">
-        <v>427</v>
-      </c>
-      <c r="B429" t="n">
-        <v>3.878</v>
-      </c>
-      <c r="C429" t="n">
-        <v>3.878</v>
-      </c>
-      <c r="D429" t="n">
-        <v>3.878</v>
-      </c>
-      <c r="E429" t="n">
-        <v>3.878</v>
-      </c>
-      <c r="F429" t="n">
-        <v>123862.364</v>
-      </c>
-      <c r="G429" t="n">
-        <v>-3848784.861661991</v>
-      </c>
-      <c r="H429" t="n">
-        <v>1</v>
-      </c>
-      <c r="I429" t="n">
-        <v>3.879</v>
-      </c>
-      <c r="J429" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L429" t="n">
-        <v>1</v>
-      </c>
-      <c r="M429" t="inlineStr"/>
-    </row>
-    <row r="430">
-      <c r="A430" s="1" t="n">
-        <v>428</v>
-      </c>
-      <c r="B430" t="n">
-        <v>3.876</v>
-      </c>
-      <c r="C430" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="D430" t="n">
-        <v>3.876</v>
-      </c>
-      <c r="E430" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="F430" t="n">
-        <v>263522.0666</v>
-      </c>
-      <c r="G430" t="n">
-        <v>-4112306.928261991</v>
-      </c>
-      <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L430" t="n">
-        <v>1</v>
-      </c>
-      <c r="M430" t="inlineStr"/>
-    </row>
-    <row r="431">
-      <c r="A431" s="1" t="n">
-        <v>429</v>
-      </c>
-      <c r="B431" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="C431" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="D431" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="E431" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="F431" t="n">
-        <v>362070.403</v>
-      </c>
-      <c r="G431" t="n">
-        <v>-3750236.525261991</v>
-      </c>
-      <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L431" t="n">
-        <v>1</v>
-      </c>
-      <c r="M431" t="inlineStr"/>
-    </row>
-    <row r="432">
-      <c r="A432" s="1" t="n">
-        <v>430</v>
-      </c>
-      <c r="B432" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="C432" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="D432" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="E432" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="F432" t="n">
-        <v>522756.827</v>
-      </c>
-      <c r="G432" t="n">
-        <v>-3227479.698261991</v>
-      </c>
-      <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L432" t="n">
-        <v>1</v>
-      </c>
-      <c r="M432" t="inlineStr"/>
-    </row>
-    <row r="433">
-      <c r="A433" s="1" t="n">
-        <v>431</v>
-      </c>
-      <c r="B433" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="C433" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="D433" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="E433" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="F433" t="n">
-        <v>522892.819</v>
-      </c>
-      <c r="G433" t="n">
-        <v>-3750372.517261991</v>
-      </c>
-      <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L433" t="n">
-        <v>1</v>
-      </c>
-      <c r="M433" t="inlineStr"/>
-    </row>
-    <row r="434">
-      <c r="A434" s="1" t="n">
-        <v>432</v>
-      </c>
-      <c r="B434" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="C434" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="D434" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="E434" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="F434" t="n">
-        <v>619073.0429999999</v>
-      </c>
-      <c r="G434" t="n">
-        <v>-3750372.517261991</v>
-      </c>
-      <c r="H434" t="n">
-        <v>1</v>
-      </c>
-      <c r="I434" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="J434" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L434" t="n">
-        <v>1</v>
-      </c>
-      <c r="M434" t="inlineStr"/>
-    </row>
-    <row r="435">
-      <c r="A435" s="1" t="n">
-        <v>433</v>
-      </c>
-      <c r="B435" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="C435" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="D435" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="E435" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="F435" t="n">
-        <v>124925.475</v>
-      </c>
-      <c r="G435" t="n">
-        <v>-3750372.517261991</v>
-      </c>
-      <c r="H435" t="n">
-        <v>1</v>
-      </c>
-      <c r="I435" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="J435" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L435" t="n">
-        <v>1</v>
-      </c>
-      <c r="M435" t="inlineStr"/>
-    </row>
-    <row r="436">
-      <c r="A436" s="1" t="n">
-        <v>434</v>
-      </c>
-      <c r="B436" t="n">
-        <v>3.846</v>
-      </c>
-      <c r="C436" t="n">
-        <v>3.846</v>
-      </c>
-      <c r="D436" t="n">
-        <v>3.846</v>
-      </c>
-      <c r="E436" t="n">
-        <v>3.846</v>
-      </c>
-      <c r="F436" t="n">
-        <v>169295.512</v>
-      </c>
-      <c r="G436" t="n">
-        <v>-3581077.005261991</v>
-      </c>
-      <c r="H436" t="n">
-        <v>1</v>
-      </c>
-      <c r="I436" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="J436" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L436" t="n">
-        <v>1</v>
-      </c>
-      <c r="M436" t="inlineStr"/>
-    </row>
-    <row r="437">
-      <c r="A437" s="1" t="n">
-        <v>435</v>
-      </c>
-      <c r="B437" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="C437" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="D437" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="E437" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="F437" t="n">
-        <v>291995.824</v>
-      </c>
-      <c r="G437" t="n">
-        <v>-3873072.829261991</v>
-      </c>
-      <c r="H437" t="n">
-        <v>1</v>
-      </c>
-      <c r="I437" t="n">
-        <v>3.846</v>
-      </c>
-      <c r="J437" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L437" t="n">
-        <v>1</v>
-      </c>
-      <c r="M437" t="inlineStr"/>
-    </row>
-    <row r="438">
-      <c r="A438" s="1" t="n">
-        <v>436</v>
-      </c>
-      <c r="B438" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="C438" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="D438" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="E438" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="F438" t="n">
-        <v>320952.958</v>
-      </c>
-      <c r="G438" t="n">
-        <v>-3552119.871261991</v>
-      </c>
-      <c r="H438" t="n">
-        <v>1</v>
-      </c>
-      <c r="I438" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="J438" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L438" t="n">
-        <v>1</v>
-      </c>
-      <c r="M438" t="inlineStr"/>
-    </row>
-    <row r="439">
-      <c r="A439" s="1" t="n">
-        <v>437</v>
-      </c>
-      <c r="B439" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="C439" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="D439" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="E439" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="F439" t="n">
-        <v>17801.919</v>
-      </c>
-      <c r="G439" t="n">
-        <v>-3569921.790261991</v>
-      </c>
-      <c r="H439" t="n">
-        <v>1</v>
-      </c>
-      <c r="I439" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="J439" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L439" t="n">
-        <v>1</v>
-      </c>
-      <c r="M439" t="inlineStr"/>
-    </row>
-    <row r="440">
-      <c r="A440" s="1" t="n">
-        <v>438</v>
-      </c>
-      <c r="B440" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="C440" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="D440" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="E440" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="F440" t="n">
-        <v>83677.27</v>
-      </c>
-      <c r="G440" t="n">
-        <v>-3486244.520261991</v>
-      </c>
-      <c r="H440" t="n">
-        <v>1</v>
-      </c>
-      <c r="I440" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="J440" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L440" t="n">
-        <v>1</v>
-      </c>
-      <c r="M440" t="inlineStr"/>
-    </row>
-    <row r="441">
-      <c r="A441" s="1" t="n">
-        <v>439</v>
-      </c>
-      <c r="B441" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="C441" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="D441" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="E441" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="F441" t="n">
-        <v>170477.753</v>
-      </c>
-      <c r="G441" t="n">
-        <v>-3656722.273261991</v>
-      </c>
-      <c r="H441" t="n">
-        <v>1</v>
-      </c>
-      <c r="I441" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="J441" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L441" t="n">
-        <v>1</v>
-      </c>
-      <c r="M441" t="inlineStr"/>
-    </row>
-    <row r="442">
-      <c r="A442" s="1" t="n">
-        <v>440</v>
-      </c>
-      <c r="B442" t="n">
-        <v>3.846</v>
-      </c>
-      <c r="C442" t="n">
-        <v>3.846</v>
-      </c>
-      <c r="D442" t="n">
-        <v>3.846</v>
-      </c>
-      <c r="E442" t="n">
-        <v>3.846</v>
-      </c>
-      <c r="F442" t="n">
-        <v>309980.027</v>
-      </c>
-      <c r="G442" t="n">
-        <v>-3346742.246261991</v>
-      </c>
-      <c r="H442" t="n">
-        <v>1</v>
-      </c>
-      <c r="I442" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="J442" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L442" t="n">
-        <v>1</v>
-      </c>
-      <c r="M442" t="inlineStr"/>
-    </row>
-    <row r="443">
-      <c r="A443" s="1" t="n">
-        <v>441</v>
-      </c>
-      <c r="B443" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="C443" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="D443" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="E443" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="F443" t="n">
-        <v>369394.056</v>
-      </c>
-      <c r="G443" t="n">
-        <v>-3716136.30226199</v>
-      </c>
-      <c r="H443" t="n">
-        <v>1</v>
-      </c>
-      <c r="I443" t="n">
-        <v>3.846</v>
-      </c>
-      <c r="J443" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L443" t="n">
-        <v>1</v>
-      </c>
-      <c r="M443" t="inlineStr"/>
-    </row>
-    <row r="444">
-      <c r="A444" s="1" t="n">
-        <v>442</v>
-      </c>
-      <c r="B444" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="C444" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="D444" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="E444" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="F444" t="n">
-        <v>554830.738</v>
-      </c>
-      <c r="G444" t="n">
-        <v>-3716136.30226199</v>
-      </c>
-      <c r="H444" t="n">
-        <v>1</v>
-      </c>
-      <c r="I444" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="J444" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L444" t="n">
-        <v>1</v>
-      </c>
-      <c r="M444" t="inlineStr"/>
-    </row>
-    <row r="445">
-      <c r="A445" s="1" t="n">
-        <v>443</v>
-      </c>
-      <c r="B445" t="n">
-        <v>3.847</v>
-      </c>
-      <c r="C445" t="n">
-        <v>3.847</v>
-      </c>
-      <c r="D445" t="n">
-        <v>3.847</v>
-      </c>
-      <c r="E445" t="n">
-        <v>3.847</v>
-      </c>
-      <c r="F445" t="n">
-        <v>76444.96799999999</v>
-      </c>
-      <c r="G445" t="n">
-        <v>-3639691.334261991</v>
-      </c>
-      <c r="H445" t="n">
-        <v>1</v>
-      </c>
-      <c r="I445" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="J445" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L445" t="n">
-        <v>1</v>
-      </c>
-      <c r="M445" t="inlineStr"/>
-    </row>
-    <row r="446">
-      <c r="A446" s="1" t="n">
-        <v>444</v>
-      </c>
-      <c r="B446" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="C446" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="D446" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="E446" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="F446" t="n">
-        <v>222803.243</v>
-      </c>
-      <c r="G446" t="n">
-        <v>-3862494.57726199</v>
-      </c>
-      <c r="H446" t="n">
-        <v>1</v>
-      </c>
-      <c r="I446" t="n">
-        <v>3.847</v>
-      </c>
-      <c r="J446" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L446" t="n">
-        <v>1</v>
-      </c>
-      <c r="M446" t="inlineStr"/>
-    </row>
-    <row r="447">
-      <c r="A447" s="1" t="n">
-        <v>445</v>
-      </c>
-      <c r="B447" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="C447" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="D447" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="E447" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="F447" t="n">
-        <v>319971.294</v>
-      </c>
-      <c r="G447" t="n">
-        <v>-3862494.57726199</v>
-      </c>
-      <c r="H447" t="n">
-        <v>1</v>
-      </c>
-      <c r="I447" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="J447" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L447" t="n">
-        <v>1</v>
-      </c>
-      <c r="M447" t="inlineStr"/>
-    </row>
-    <row r="448">
-      <c r="A448" s="1" t="n">
-        <v>446</v>
-      </c>
-      <c r="B448" t="n">
-        <v>3.846</v>
-      </c>
-      <c r="C448" t="n">
-        <v>3.846</v>
-      </c>
-      <c r="D448" t="n">
-        <v>3.846</v>
-      </c>
-      <c r="E448" t="n">
-        <v>3.846</v>
-      </c>
-      <c r="F448" t="n">
-        <v>455171.818</v>
-      </c>
-      <c r="G448" t="n">
-        <v>-3407322.75926199</v>
-      </c>
-      <c r="H448" t="n">
-        <v>1</v>
-      </c>
-      <c r="I448" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="J448" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L448" t="n">
-        <v>1</v>
-      </c>
-      <c r="M448" t="inlineStr"/>
-    </row>
-    <row r="449">
-      <c r="A449" s="1" t="n">
-        <v>447</v>
-      </c>
-      <c r="B449" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="C449" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="D449" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="E449" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="F449" t="n">
-        <v>53725.816</v>
-      </c>
-      <c r="G449" t="n">
-        <v>-3461048.575261991</v>
-      </c>
-      <c r="H449" t="n">
-        <v>1</v>
-      </c>
-      <c r="I449" t="n">
-        <v>3.846</v>
-      </c>
-      <c r="J449" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L449" t="n">
-        <v>1</v>
-      </c>
-      <c r="M449" t="inlineStr"/>
-    </row>
-    <row r="450">
-      <c r="A450" s="1" t="n">
-        <v>448</v>
-      </c>
-      <c r="B450" t="n">
-        <v>3.846</v>
-      </c>
-      <c r="C450" t="n">
-        <v>3.846</v>
-      </c>
-      <c r="D450" t="n">
-        <v>3.846</v>
-      </c>
-      <c r="E450" t="n">
-        <v>3.846</v>
-      </c>
-      <c r="F450" t="n">
-        <v>157700.245</v>
-      </c>
-      <c r="G450" t="n">
-        <v>-3303348.33026199</v>
-      </c>
-      <c r="H450" t="n">
-        <v>1</v>
-      </c>
-      <c r="I450" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="J450" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L450" t="n">
-        <v>1</v>
-      </c>
-      <c r="M450" t="inlineStr"/>
-    </row>
-    <row r="451">
-      <c r="A451" s="1" t="n">
-        <v>449</v>
-      </c>
-      <c r="B451" t="n">
-        <v>3.848</v>
-      </c>
-      <c r="C451" t="n">
-        <v>3.848</v>
-      </c>
-      <c r="D451" t="n">
-        <v>3.848</v>
-      </c>
-      <c r="E451" t="n">
-        <v>3.848</v>
-      </c>
-      <c r="F451" t="n">
-        <v>191562.042</v>
-      </c>
-      <c r="G451" t="n">
-        <v>-3111786.288261991</v>
-      </c>
-      <c r="H451" t="n">
-        <v>1</v>
-      </c>
-      <c r="I451" t="n">
-        <v>3.846</v>
-      </c>
-      <c r="J451" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L451" t="n">
-        <v>1</v>
-      </c>
-      <c r="M451" t="inlineStr"/>
-    </row>
-    <row r="452">
-      <c r="A452" s="1" t="n">
-        <v>450</v>
-      </c>
-      <c r="B452" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="C452" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="D452" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="E452" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="F452" t="n">
-        <v>264503.743</v>
-      </c>
-      <c r="G452" t="n">
-        <v>-3376290.031261991</v>
-      </c>
-      <c r="H452" t="n">
-        <v>1</v>
-      </c>
-      <c r="I452" t="n">
-        <v>3.848</v>
-      </c>
-      <c r="J452" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15586,19 +15370,11 @@
         <v>-4061211.471261991</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
-      </c>
-      <c r="I453" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="J453" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I453" t="inlineStr"/>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15627,19 +15403,11 @@
         <v>-4030108.655261991</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
-      </c>
-      <c r="I454" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="J454" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15668,19 +15436,11 @@
         <v>-4107612.278261991</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
-      </c>
-      <c r="I455" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="J455" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15709,19 +15469,11 @@
         <v>-4107612.278261991</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
-      </c>
-      <c r="I456" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="J456" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15750,19 +15502,11 @@
         <v>-4107612.278261991</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
-      </c>
-      <c r="I457" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="J457" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15791,19 +15535,11 @@
         <v>-3841171.191261991</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
-      </c>
-      <c r="I458" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="J458" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15832,19 +15568,11 @@
         <v>-3826184.855261991</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
-      </c>
-      <c r="I459" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="J459" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15873,19 +15601,11 @@
         <v>-3775672.349261991</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
-      </c>
-      <c r="I460" t="n">
-        <v>3.848</v>
-      </c>
-      <c r="J460" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15917,14 +15637,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15956,14 +15670,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15992,19 +15700,11 @@
         <v>-4735131.89726199</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
-      </c>
-      <c r="I463" t="n">
-        <v>3.847</v>
-      </c>
-      <c r="J463" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16033,19 +15733,11 @@
         <v>-4682514.183261991</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
-      </c>
-      <c r="I464" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="J464" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I464" t="inlineStr"/>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16074,19 +15766,11 @@
         <v>-4682514.183261991</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
-      </c>
-      <c r="I465" t="n">
-        <v>3.846</v>
-      </c>
-      <c r="J465" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16115,19 +15799,11 @@
         <v>-4391246.115261991</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
-      </c>
-      <c r="I466" t="n">
-        <v>3.846</v>
-      </c>
-      <c r="J466" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16156,19 +15832,11 @@
         <v>-4755219.17726199</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
-      </c>
-      <c r="I467" t="n">
-        <v>3.848</v>
-      </c>
-      <c r="J467" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16197,19 +15865,11 @@
         <v>-4328047.399261991</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
-      </c>
-      <c r="I468" t="n">
-        <v>3.846</v>
-      </c>
-      <c r="J468" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16238,19 +15898,11 @@
         <v>-4318448.36926199</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
-      </c>
-      <c r="I469" t="n">
-        <v>3.848</v>
-      </c>
-      <c r="J469" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16279,19 +15931,11 @@
         <v>-4374515.21426199</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
-      </c>
-      <c r="I470" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J470" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16320,19 +15964,11 @@
         <v>-4060645.07326199</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
-      </c>
-      <c r="I471" t="n">
-        <v>3.847</v>
-      </c>
-      <c r="J471" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16361,19 +15997,11 @@
         <v>-3785309.29826199</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
-      </c>
-      <c r="I472" t="n">
-        <v>3.851</v>
-      </c>
-      <c r="J472" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16402,19 +16030,11 @@
         <v>-3449630.49526199</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
-      </c>
-      <c r="I473" t="n">
-        <v>3.853</v>
-      </c>
-      <c r="J473" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I473" t="inlineStr"/>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16443,19 +16063,11 @@
         <v>-3403988.343261991</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
-      </c>
-      <c r="I474" t="n">
-        <v>3.855</v>
-      </c>
-      <c r="J474" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16484,19 +16096,11 @@
         <v>-3490441.213261991</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
-      </c>
-      <c r="I475" t="n">
-        <v>3.856</v>
-      </c>
-      <c r="J475" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16525,19 +16129,11 @@
         <v>-3351997.115261991</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
-      </c>
-      <c r="I476" t="n">
-        <v>3.853</v>
-      </c>
-      <c r="J476" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16566,19 +16162,11 @@
         <v>-3190869.724261991</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
-      </c>
-      <c r="I477" t="n">
-        <v>3.855</v>
-      </c>
-      <c r="J477" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16607,19 +16195,11 @@
         <v>-3017943.057261991</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
-      </c>
-      <c r="I478" t="n">
-        <v>3.856</v>
-      </c>
-      <c r="J478" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16651,14 +16231,8 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16690,14 +16264,8 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16729,14 +16297,8 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16768,14 +16330,8 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16807,14 +16363,8 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16843,19 +16393,11 @@
         <v>-2814929.64676199</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
-      </c>
-      <c r="I484" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="J484" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I484" t="inlineStr"/>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16884,19 +16426,11 @@
         <v>-2963919.77776199</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
-      </c>
-      <c r="I485" t="n">
-        <v>3.855</v>
-      </c>
-      <c r="J485" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I485" t="inlineStr"/>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16925,19 +16459,11 @@
         <v>-2762951.96476199</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
-      </c>
-      <c r="I486" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="J486" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I486" t="inlineStr"/>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16966,19 +16492,11 @@
         <v>-2537473.03176199</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
-      </c>
-      <c r="I487" t="n">
-        <v>3.855</v>
-      </c>
-      <c r="J487" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I487" t="inlineStr"/>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17007,19 +16525,11 @@
         <v>-2816243.39876199</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
-      </c>
-      <c r="I488" t="n">
-        <v>3.857</v>
-      </c>
-      <c r="J488" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I488" t="inlineStr"/>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17048,19 +16558,11 @@
         <v>-2804622.31676199</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
-      </c>
-      <c r="I489" t="n">
-        <v>3.854</v>
-      </c>
-      <c r="J489" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I489" t="inlineStr"/>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17089,19 +16591,11 @@
         <v>-2846097.92776199</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
-      </c>
-      <c r="I490" t="n">
-        <v>3.856</v>
-      </c>
-      <c r="J490" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I490" t="inlineStr"/>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17130,19 +16624,11 @@
         <v>-3234100.01046199</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
-      </c>
-      <c r="I491" t="n">
-        <v>3.854</v>
-      </c>
-      <c r="J491" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I491" t="inlineStr"/>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17171,19 +16657,11 @@
         <v>-2970874.57546199</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
-      </c>
-      <c r="I492" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J492" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I492" t="inlineStr"/>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17212,19 +16690,11 @@
         <v>-2970874.57546199</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
-      </c>
-      <c r="I493" t="n">
-        <v>3.861</v>
-      </c>
-      <c r="J493" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I493" t="inlineStr"/>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17253,19 +16723,11 @@
         <v>-2970874.57546199</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
-      </c>
-      <c r="I494" t="n">
-        <v>3.861</v>
-      </c>
-      <c r="J494" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I494" t="inlineStr"/>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17294,19 +16756,11 @@
         <v>-2802312.12246199</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
-      </c>
-      <c r="I495" t="n">
-        <v>3.861</v>
-      </c>
-      <c r="J495" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I495" t="inlineStr"/>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17335,19 +16789,11 @@
         <v>-3089475.17146199</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
-      </c>
-      <c r="I496" t="n">
-        <v>3.863</v>
-      </c>
-      <c r="J496" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I496" t="inlineStr"/>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17376,19 +16822,11 @@
         <v>-2671432.27946199</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
-      </c>
-      <c r="I497" t="n">
-        <v>3.861</v>
-      </c>
-      <c r="J497" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I497" t="inlineStr"/>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17417,19 +16855,11 @@
         <v>-2146844.26256199</v>
       </c>
       <c r="H498" t="n">
-        <v>1</v>
-      </c>
-      <c r="I498" t="n">
-        <v>3.865</v>
-      </c>
-      <c r="J498" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I498" t="inlineStr"/>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17461,14 +16891,8 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17500,14 +16924,8 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17539,14 +16957,8 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17578,14 +16990,8 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17617,14 +17023,8 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17656,14 +17056,8 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17695,14 +17089,8 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17734,14 +17122,8 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17773,14 +17155,8 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17812,14 +17188,8 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17851,14 +17221,8 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17890,14 +17254,8 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17929,14 +17287,8 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17968,14 +17320,8 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18007,14 +17353,8 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18046,14 +17386,8 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18085,14 +17419,8 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18124,14 +17452,8 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18163,14 +17485,8 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18202,14 +17518,8 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18241,14 +17551,8 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18280,14 +17584,8 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18319,14 +17617,8 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18358,14 +17650,8 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18397,14 +17683,8 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18436,14 +17716,8 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18475,14 +17749,8 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18514,14 +17782,8 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18553,14 +17815,8 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18592,14 +17848,8 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18631,14 +17881,8 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18670,14 +17914,8 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18709,14 +17947,8 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18748,14 +17980,8 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18787,14 +18013,8 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18826,14 +18046,8 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18865,14 +18079,8 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18904,14 +18112,8 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18943,14 +18145,8 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18979,19 +18175,13 @@
         <v>-3079822.941313024</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
-        <v>0.9991634139994795</v>
+        <v>1</v>
       </c>
       <c r="M538" t="inlineStr"/>
     </row>
@@ -21306,6 +20496,6 @@
       <c r="M608" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest TMTG.xlsx
+++ b/BackTest/2020-01-19 BackTest TMTG.xlsx
@@ -550,7 +550,7 @@
         <v>191986.6576548276</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>1901706.326931489</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>1901706.326931489</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>1820744.948931489</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>3362941.303931489</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>3915513.726031489</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>3057527.380031489</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>2029403.535031489</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>2543139.093031489</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -14278,10 +14278,14 @@
         <v>-4229148.820661991</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="J421" t="n">
+        <v>3.841</v>
+      </c>
       <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
@@ -14311,11 +14315,19 @@
         <v>-4229148.820661991</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="J422" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14344,11 +14356,19 @@
         <v>-4229148.820661991</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="J423" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14377,10 +14397,14 @@
         <v>-4229148.820661991</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="J424" t="n">
+        <v>3.841</v>
+      </c>
       <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
@@ -14410,11 +14434,19 @@
         <v>-4229148.820661991</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="J425" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14443,11 +14475,19 @@
         <v>-4011756.292661991</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="J426" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14476,10 +14516,14 @@
         <v>-4309179.171661991</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="J427" t="n">
+        <v>3.843</v>
+      </c>
       <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
@@ -14509,11 +14553,19 @@
         <v>-3724922.497661991</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="J428" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14542,11 +14594,19 @@
         <v>-3848784.861661991</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>3.879</v>
+      </c>
+      <c r="J429" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14578,8 +14638,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14611,8 +14677,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14644,8 +14716,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14677,8 +14755,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14710,8 +14794,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14740,11 +14830,19 @@
         <v>-3750372.517261991</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="J435" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14773,11 +14871,19 @@
         <v>-3581077.005261991</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="J436" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14806,11 +14912,19 @@
         <v>-3873072.829261991</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>3.846</v>
+      </c>
+      <c r="J437" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14839,11 +14953,19 @@
         <v>-3552119.871261991</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="J438" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14872,11 +14994,19 @@
         <v>-3569921.790261991</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>3.845</v>
+      </c>
+      <c r="J439" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14905,11 +15035,19 @@
         <v>-3486244.520261991</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="J440" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -14938,11 +15076,19 @@
         <v>-3656722.273261991</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>3.845</v>
+      </c>
+      <c r="J441" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -14971,11 +15117,19 @@
         <v>-3346742.246261991</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="J442" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15004,11 +15158,19 @@
         <v>-3716136.30226199</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>3.846</v>
+      </c>
+      <c r="J443" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15037,11 +15199,19 @@
         <v>-3716136.30226199</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="J444" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15070,11 +15240,19 @@
         <v>-3639691.334261991</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="J445" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15103,11 +15281,19 @@
         <v>-3862494.57726199</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>3.847</v>
+      </c>
+      <c r="J446" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15142,9 +15328,13 @@
         <v>3.844</v>
       </c>
       <c r="J447" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="K447" t="inlineStr"/>
+        <v>3.843</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15179,11 +15369,11 @@
         <v>3.844</v>
       </c>
       <c r="J448" t="n">
-        <v>3.844</v>
+        <v>3.843</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L448" t="n">
@@ -15214,15 +15404,17 @@
         <v>-3461048.575261991</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>3.846</v>
+      </c>
       <c r="J449" t="n">
-        <v>3.844</v>
+        <v>3.843</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L449" t="n">
@@ -15259,9 +15451,13 @@
         <v>3.844</v>
       </c>
       <c r="J450" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="K450" t="inlineStr"/>
+        <v>3.843</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15296,11 +15492,11 @@
         <v>3.846</v>
       </c>
       <c r="J451" t="n">
-        <v>3.844</v>
+        <v>3.843</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L451" t="n">
@@ -15331,15 +15527,17 @@
         <v>-3376290.031261991</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>3.848</v>
+      </c>
       <c r="J452" t="n">
-        <v>3.844</v>
+        <v>3.843</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L452" t="n">
@@ -15370,11 +15568,19 @@
         <v>-4061211.471261991</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>3.845</v>
+      </c>
+      <c r="J453" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15403,11 +15609,19 @@
         <v>-4030108.655261991</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="J454" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15436,11 +15650,19 @@
         <v>-4107612.278261991</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>3.845</v>
+      </c>
+      <c r="J455" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15469,11 +15691,19 @@
         <v>-4107612.278261991</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="J456" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15502,11 +15732,19 @@
         <v>-4107612.278261991</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="J457" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15535,11 +15773,19 @@
         <v>-3841171.191261991</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="J458" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15568,11 +15814,19 @@
         <v>-3826184.855261991</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>3.845</v>
+      </c>
+      <c r="J459" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15601,11 +15855,19 @@
         <v>-3775672.349261991</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="J460" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15634,11 +15896,19 @@
         <v>-3690705.415261991</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>3.851</v>
+      </c>
+      <c r="J461" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15667,11 +15937,19 @@
         <v>-4213051.27326199</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>3.853</v>
+      </c>
+      <c r="J462" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15700,11 +15978,19 @@
         <v>-4735131.89726199</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>3.847</v>
+      </c>
+      <c r="J463" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15733,11 +16019,19 @@
         <v>-4682514.183261991</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>3.845</v>
+      </c>
+      <c r="J464" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15766,11 +16060,19 @@
         <v>-4682514.183261991</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>3.846</v>
+      </c>
+      <c r="J465" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15799,11 +16101,19 @@
         <v>-4391246.115261991</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>3.846</v>
+      </c>
+      <c r="J466" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15832,11 +16142,19 @@
         <v>-4755219.17726199</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="J467" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15865,11 +16183,19 @@
         <v>-4328047.399261991</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>3.846</v>
+      </c>
+      <c r="J468" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15898,11 +16224,19 @@
         <v>-4318448.36926199</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="J469" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -15931,11 +16265,19 @@
         <v>-4374515.21426199</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J470" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -15964,11 +16306,19 @@
         <v>-4060645.07326199</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>3.847</v>
+      </c>
+      <c r="J471" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -15997,11 +16347,19 @@
         <v>-3785309.29826199</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>3.851</v>
+      </c>
+      <c r="J472" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16030,11 +16388,19 @@
         <v>-3449630.49526199</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>3.853</v>
+      </c>
+      <c r="J473" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16063,11 +16429,19 @@
         <v>-3403988.343261991</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="J474" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16096,11 +16470,19 @@
         <v>-3490441.213261991</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>3.856</v>
+      </c>
+      <c r="J475" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16129,11 +16511,19 @@
         <v>-3351997.115261991</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>3.853</v>
+      </c>
+      <c r="J476" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16162,11 +16552,19 @@
         <v>-3190869.724261991</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="J477" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16195,11 +16593,19 @@
         <v>-3017943.057261991</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>3.856</v>
+      </c>
+      <c r="J478" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16228,11 +16634,19 @@
         <v>-3120529.075761991</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>3.858</v>
+      </c>
+      <c r="J479" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16261,11 +16675,19 @@
         <v>-3076158.01776199</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>3.845</v>
+      </c>
+      <c r="J480" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16294,11 +16716,19 @@
         <v>-2790223.43476199</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>3.847</v>
+      </c>
+      <c r="J481" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16327,11 +16757,19 @@
         <v>-2497995.18076199</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="J482" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16360,11 +16798,19 @@
         <v>-2867072.98076199</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="J483" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16393,11 +16839,19 @@
         <v>-2814929.64676199</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="J484" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16426,11 +16880,19 @@
         <v>-2963919.77776199</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="J485" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16459,11 +16921,19 @@
         <v>-2762951.96476199</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="J486" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16492,11 +16962,19 @@
         <v>-2537473.03176199</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="J487" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16525,11 +17003,19 @@
         <v>-2816243.39876199</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>3.857</v>
+      </c>
+      <c r="J488" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16558,11 +17044,19 @@
         <v>-2804622.31676199</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>3.854</v>
+      </c>
+      <c r="J489" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16591,11 +17085,19 @@
         <v>-2846097.92776199</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>3.856</v>
+      </c>
+      <c r="J490" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16624,11 +17126,19 @@
         <v>-3234100.01046199</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
-      </c>
-      <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I491" t="n">
+        <v>3.854</v>
+      </c>
+      <c r="J491" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16657,11 +17167,19 @@
         <v>-2970874.57546199</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
-      </c>
-      <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I492" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J492" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16690,11 +17208,19 @@
         <v>-2970874.57546199</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
-      </c>
-      <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I493" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="J493" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16723,11 +17249,19 @@
         <v>-2970874.57546199</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
-      </c>
-      <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I494" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="J494" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16756,11 +17290,19 @@
         <v>-2802312.12246199</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
-      </c>
-      <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I495" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="J495" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -16789,11 +17331,19 @@
         <v>-3089475.17146199</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I496" t="n">
+        <v>3.863</v>
+      </c>
+      <c r="J496" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -16822,11 +17372,19 @@
         <v>-2671432.27946199</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
-      </c>
-      <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I497" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="J497" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -16855,11 +17413,19 @@
         <v>-2146844.26256199</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
-      </c>
-      <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I498" t="n">
+        <v>3.865</v>
+      </c>
+      <c r="J498" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -16891,8 +17457,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -16924,8 +17496,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -16957,8 +17535,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -16990,8 +17574,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17023,8 +17613,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17056,8 +17652,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17089,8 +17691,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17122,8 +17730,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17155,8 +17769,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17188,8 +17808,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17221,8 +17847,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17254,8 +17886,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17287,8 +17925,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17320,8 +17964,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17353,8 +18003,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17386,8 +18042,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17419,8 +18081,14 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17452,8 +18120,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17485,8 +18159,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17518,8 +18198,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17551,8 +18237,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17584,8 +18276,14 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17617,8 +18315,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17650,8 +18354,14 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17683,8 +18393,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17716,8 +18432,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17749,8 +18471,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17779,13 +18507,19 @@
         <v>371827.2004380109</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L526" t="n">
-        <v>1</v>
+        <v>1.012954722872756</v>
       </c>
       <c r="M526" t="inlineStr"/>
     </row>
@@ -17812,7 +18546,7 @@
         <v>371827.2004380109</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17845,7 +18579,7 @@
         <v>-1079781.076561989</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17878,7 +18612,7 @@
         <v>-1845289.810613024</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17911,7 +18645,7 @@
         <v>-1980744.712613024</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17944,7 +18678,7 @@
         <v>-1775756.084613024</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17977,7 +18711,7 @@
         <v>-2034789.716613024</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
